--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\UiPath\Connected Office Web Application User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D675F3C3-C6DA-477A-99AC-A0A213C20A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C704E3-4654-4569-85EC-87089626C180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,7 +687,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +911,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,7 +1399,7 @@
         <v>48</v>
       </c>
       <c r="B16" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2" t="b">
         <v>0</v>

--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\UiPath\Connected Office Web Application User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C704E3-4654-4569-85EC-87089626C180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8864AD2-B94B-4BAD-A868-09A449BB30F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
